--- a/municipal/ENG/byKindOfEconomicActivity/Number of active entities by kind of economic activity/Samegrelo-Zemo Svaneti/Tsalenjikha.xlsx
+++ b/municipal/ENG/byKindOfEconomicActivity/Number of active entities by kind of economic activity/Samegrelo-Zemo Svaneti/Tsalenjikha.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA01276-0381-42F4-B2C4-0D9936060A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tsalenjikha" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>(Unit)</t>
   </si>
@@ -95,13 +96,7 @@
     <t>Other service activities</t>
   </si>
   <si>
-    <t>Activities of households as employers; Undifferentiated goods- and services-producing  activities of households for own use</t>
-  </si>
-  <si>
     <t>Activity unknown</t>
-  </si>
-  <si>
-    <t>Note: Data is confidential or isn't available.</t>
   </si>
   <si>
     <t>Number of active entities registered in Tsalenjikha Municipality by kind of economic activity and size</t>
@@ -110,11 +105,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,17 +147,23 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -179,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -311,6 +312,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -331,48 +393,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +438,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,6 +544,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -521,6 +596,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,55 +788,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64" style="19" customWidth="1"/>
-    <col min="2" max="8" width="9.42578125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9" style="3" customWidth="1"/>
-    <col min="24" max="28" width="10.7109375" style="7" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="7"/>
-    <col min="30" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="64" style="10" customWidth="1"/>
+    <col min="2" max="22" width="8.7109375" style="3" customWidth="1"/>
+    <col min="23" max="28" width="8.85546875" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
+      <c r="A1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
     </row>
     <row r="2" spans="1:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -759,68 +841,76 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:38" s="9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29">
+    <row r="3" spans="1:38" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21">
         <v>2012</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="23">
         <v>2013</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="23">
         <v>2014</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="23">
         <v>2015</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="23">
         <v>2016</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="23">
         <v>2017</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="23">
         <v>2018</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="15">
         <v>2019</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15">
         <v>2020</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15">
         <v>2021</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="8"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="16">
+        <v>2022</v>
+      </c>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="16">
+        <v>2023</v>
+      </c>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="18"/>
     </row>
     <row r="4" spans="1:38" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
@@ -866,140 +956,185 @@
       <c r="W4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
+      <c r="X4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
-        <v>626</v>
-      </c>
-      <c r="C5" s="11">
-        <v>696</v>
-      </c>
-      <c r="D5" s="11">
-        <v>733</v>
-      </c>
-      <c r="E5" s="11">
-        <v>972</v>
-      </c>
-      <c r="F5" s="11">
-        <v>920</v>
-      </c>
-      <c r="G5" s="11">
-        <v>899</v>
-      </c>
-      <c r="H5" s="11">
-        <v>864</v>
-      </c>
-      <c r="I5" s="11">
-        <v>952</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="B5" s="25">
+        <v>620</v>
+      </c>
+      <c r="C5" s="26">
+        <v>688</v>
+      </c>
+      <c r="D5" s="26">
+        <v>726</v>
+      </c>
+      <c r="E5" s="26">
+        <v>968</v>
+      </c>
+      <c r="F5" s="26">
+        <v>916</v>
+      </c>
+      <c r="G5" s="26">
+        <v>892</v>
+      </c>
+      <c r="H5" s="26">
+        <v>858</v>
+      </c>
+      <c r="I5" s="26">
+        <v>944</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="26">
         <v>5</v>
       </c>
-      <c r="L5" s="11">
-        <v>721</v>
-      </c>
-      <c r="M5" s="11">
-        <v>225</v>
-      </c>
-      <c r="N5" s="11">
-        <v>972</v>
-      </c>
-      <c r="O5" s="11">
-        <v>1</v>
-      </c>
-      <c r="P5" s="11">
+      <c r="L5" s="26">
+        <v>716</v>
+      </c>
+      <c r="M5" s="26">
+        <v>222</v>
+      </c>
+      <c r="N5" s="26">
+        <v>964</v>
+      </c>
+      <c r="O5" s="26">
+        <v>1</v>
+      </c>
+      <c r="P5" s="26">
         <v>5</v>
       </c>
-      <c r="Q5" s="11">
-        <v>659</v>
-      </c>
-      <c r="R5" s="11">
-        <v>307</v>
-      </c>
-      <c r="S5" s="11">
-        <v>1045</v>
-      </c>
-      <c r="T5" s="11">
-        <v>1</v>
-      </c>
-      <c r="U5" s="11">
+      <c r="Q5" s="26">
+        <v>652</v>
+      </c>
+      <c r="R5" s="26">
+        <v>306</v>
+      </c>
+      <c r="S5" s="26">
+        <v>1044</v>
+      </c>
+      <c r="T5" s="26">
+        <v>1</v>
+      </c>
+      <c r="U5" s="26">
         <v>3</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="26">
         <v>906</v>
       </c>
-      <c r="W5" s="11">
-        <v>135</v>
-      </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="14"/>
+      <c r="W5" s="26">
+        <v>134</v>
+      </c>
+      <c r="X5" s="26">
+        <v>1129</v>
+      </c>
+      <c r="Y5" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="26">
+        <v>958</v>
+      </c>
+      <c r="AB5" s="26">
+        <v>165</v>
+      </c>
+      <c r="AC5" s="26">
+        <v>1150</v>
+      </c>
+      <c r="AD5" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="26">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="26">
+        <v>1145</v>
+      </c>
+      <c r="AG5" s="26">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="27">
+        <v>17</v>
+      </c>
+      <c r="C6" s="13">
+        <v>21</v>
+      </c>
+      <c r="D6" s="13">
         <v>16</v>
       </c>
-      <c r="C6" s="13">
+      <c r="E6" s="13">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13">
+        <v>17</v>
+      </c>
+      <c r="H6" s="13">
+        <v>13</v>
+      </c>
+      <c r="I6" s="13">
         <v>20</v>
       </c>
-      <c r="D6" s="13">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>12</v>
+      </c>
+      <c r="M6" s="13">
+        <v>8</v>
+      </c>
+      <c r="N6" s="13">
         <v>20</v>
-      </c>
-      <c r="G6" s="13">
-        <v>13</v>
-      </c>
-      <c r="H6" s="13">
-        <v>12</v>
-      </c>
-      <c r="I6" s="13">
-        <v>17</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13">
-        <v>11</v>
-      </c>
-      <c r="M6" s="13">
-        <v>6</v>
-      </c>
-      <c r="N6" s="13">
-        <v>19</v>
       </c>
       <c r="O6" s="13">
         <v>0</v>
@@ -1011,10 +1146,10 @@
         <v>6</v>
       </c>
       <c r="R6" s="13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S6" s="13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T6" s="13">
         <v>0</v>
@@ -1026,29 +1161,49 @@
         <v>19</v>
       </c>
       <c r="W6" s="13">
-        <v>5</v>
-      </c>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="X6" s="13">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>25</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>25</v>
+      </c>
+      <c r="AG6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="27">
         <v>5</v>
       </c>
       <c r="C7" s="13">
@@ -1058,34 +1213,34 @@
         <v>6</v>
       </c>
       <c r="E7" s="13">
+        <v>9</v>
+      </c>
+      <c r="F7" s="13">
         <v>8</v>
-      </c>
-      <c r="F7" s="13">
-        <v>7</v>
       </c>
       <c r="G7" s="13">
         <v>6</v>
       </c>
       <c r="H7" s="13">
+        <v>7</v>
+      </c>
+      <c r="I7" s="13">
+        <v>7</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
         <v>6</v>
       </c>
-      <c r="I7" s="13">
-        <v>5</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7" s="13">
-        <v>5</v>
-      </c>
       <c r="M7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" s="13">
         <v>0</v>
@@ -1094,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R7" s="13">
         <v>2</v>
       </c>
       <c r="S7" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T7" s="13">
         <v>0</v>
@@ -1109,51 +1264,71 @@
         <v>0</v>
       </c>
       <c r="V7" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W7" s="13">
         <v>0</v>
       </c>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
+      <c r="X7" s="13">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
     </row>
     <row r="8" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="27">
         <v>43</v>
       </c>
       <c r="C8" s="13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="13">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="13">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F8" s="13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="13">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="13">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="13">
         <v>72</v>
@@ -1162,16 +1337,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="13">
         <v>59</v>
       </c>
       <c r="M8" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N8" s="13">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O8" s="13">
         <v>0</v>
@@ -1180,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="13">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S8" s="13">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="T8" s="13">
         <v>0</v>
@@ -1195,32 +1370,52 @@
         <v>0</v>
       </c>
       <c r="V8" s="13">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W8" s="13">
-        <v>7</v>
-      </c>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="X8" s="13">
+        <v>97</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>84</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>13</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>102</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="27">
         <v>1</v>
       </c>
       <c r="C9" s="13">
@@ -1286,27 +1481,47 @@
       <c r="W9" s="13">
         <v>0</v>
       </c>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
+      <c r="X9" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
     </row>
     <row r="10" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="27">
         <v>3</v>
       </c>
       <c r="C10" s="13">
@@ -1328,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="13">
         <v>0</v>
@@ -1340,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="13">
         <v>2</v>
@@ -1358,75 +1573,95 @@
         <v>0</v>
       </c>
       <c r="S10" s="13">
+        <v>3</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13">
+        <v>1</v>
+      </c>
+      <c r="V10" s="13">
         <v>2</v>
       </c>
-      <c r="T10" s="13">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13">
-        <v>1</v>
-      </c>
-      <c r="V10" s="13">
-        <v>1</v>
-      </c>
       <c r="W10" s="13">
         <v>0</v>
       </c>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
+      <c r="X10" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
     </row>
     <row r="11" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13">
-        <v>44</v>
+      <c r="B11" s="27">
+        <v>47</v>
       </c>
       <c r="C11" s="13">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" s="13">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="13">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F11" s="13">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G11" s="13">
         <v>57</v>
       </c>
       <c r="H11" s="13">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11" s="13">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J11" s="13">
         <v>0</v>
       </c>
       <c r="K11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="13">
         <v>51</v>
       </c>
       <c r="M11" s="13">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N11" s="13">
         <v>100</v>
@@ -1444,7 +1679,7 @@
         <v>46</v>
       </c>
       <c r="S11" s="13">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="T11" s="13">
         <v>0</v>
@@ -1453,84 +1688,104 @@
         <v>0</v>
       </c>
       <c r="V11" s="13">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W11" s="13">
-        <v>8</v>
-      </c>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="X11" s="13">
+        <v>125</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>90</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>34</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>151</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>150</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13">
-        <v>232</v>
+      <c r="B12" s="27">
+        <v>235</v>
       </c>
       <c r="C12" s="13">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D12" s="13">
+        <v>315</v>
+      </c>
+      <c r="E12" s="13">
+        <v>372</v>
+      </c>
+      <c r="F12" s="13">
+        <v>374</v>
+      </c>
+      <c r="G12" s="13">
+        <v>373</v>
+      </c>
+      <c r="H12" s="13">
+        <v>389</v>
+      </c>
+      <c r="I12" s="13">
+        <v>419</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>345</v>
+      </c>
+      <c r="M12" s="13">
+        <v>74</v>
+      </c>
+      <c r="N12" s="13">
+        <v>438</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
         <v>311</v>
       </c>
-      <c r="E12" s="13">
-        <v>363</v>
-      </c>
-      <c r="F12" s="13">
-        <v>369</v>
-      </c>
-      <c r="G12" s="13">
-        <v>374</v>
-      </c>
-      <c r="H12" s="13">
-        <v>385</v>
-      </c>
-      <c r="I12" s="13">
-        <v>415</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
-        <v>344</v>
-      </c>
-      <c r="M12" s="13">
-        <v>71</v>
-      </c>
-      <c r="N12" s="13">
-        <v>436</v>
-      </c>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>317</v>
-      </c>
       <c r="R12" s="13">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="S12" s="13">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="T12" s="13">
         <v>0</v>
@@ -1539,54 +1794,74 @@
         <v>0</v>
       </c>
       <c r="V12" s="13">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="W12" s="13">
-        <v>34</v>
-      </c>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="X12" s="13">
+        <v>483</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>439</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>44</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>474</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>474</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
     </row>
     <row r="13" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13">
-        <v>58</v>
+      <c r="B13" s="27">
+        <v>59</v>
       </c>
       <c r="C13" s="13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="13">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="13">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F13" s="13">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G13" s="13">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H13" s="13">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I13" s="13">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J13" s="13">
         <v>0</v>
@@ -1598,10 +1873,10 @@
         <v>103</v>
       </c>
       <c r="M13" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N13" s="13">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O13" s="13">
         <v>0</v>
@@ -1613,10 +1888,10 @@
         <v>91</v>
       </c>
       <c r="R13" s="13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S13" s="13">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="T13" s="13">
         <v>0</v>
@@ -1625,33 +1900,53 @@
         <v>0</v>
       </c>
       <c r="V13" s="13">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="W13" s="13">
-        <v>6</v>
-      </c>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="X13" s="13">
+        <v>142</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13">
+        <v>121</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>21</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>167</v>
+      </c>
+      <c r="AD13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>167</v>
+      </c>
+      <c r="AG13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
     </row>
     <row r="14" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13">
-        <v>21</v>
+      <c r="B14" s="27">
+        <v>20</v>
       </c>
       <c r="C14" s="13">
         <v>23</v>
@@ -1663,13 +1958,13 @@
         <v>25</v>
       </c>
       <c r="F14" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H14" s="13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" s="13">
         <v>34</v>
@@ -1681,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14" s="13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O14" s="13">
         <v>0</v>
@@ -1699,10 +1994,10 @@
         <v>23</v>
       </c>
       <c r="R14" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S14" s="13">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T14" s="13">
         <v>0</v>
@@ -1711,32 +2006,52 @@
         <v>0</v>
       </c>
       <c r="V14" s="13">
+        <v>31</v>
+      </c>
+      <c r="W14" s="13">
+        <v>5</v>
+      </c>
+      <c r="X14" s="13">
         <v>32</v>
       </c>
-      <c r="W14" s="13">
-        <v>1</v>
-      </c>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
+      <c r="Y14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>32</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>28</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>28</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
     </row>
     <row r="15" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="27">
         <v>4</v>
       </c>
       <c r="C15" s="13">
@@ -1749,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="13">
         <v>6</v>
@@ -1758,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="13">
         <v>0</v>
@@ -1770,10 +2085,10 @@
         <v>2</v>
       </c>
       <c r="M15" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O15" s="13">
         <v>0</v>
@@ -1785,10 +2100,10 @@
         <v>2</v>
       </c>
       <c r="R15" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S15" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15" s="13">
         <v>0</v>
@@ -1797,32 +2112,52 @@
         <v>0</v>
       </c>
       <c r="V15" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W15" s="13">
         <v>0</v>
       </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
+      <c r="X15" s="13">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>12</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
     </row>
     <row r="16" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="27">
         <v>5</v>
       </c>
       <c r="C16" s="13">
@@ -1888,27 +2223,47 @@
       <c r="W16" s="13">
         <v>0</v>
       </c>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
+      <c r="X16" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
     </row>
     <row r="17" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="27">
         <v>14</v>
       </c>
       <c r="C17" s="13">
@@ -1960,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T17" s="13">
         <v>0</v>
@@ -1972,51 +2327,71 @@
         <v>11</v>
       </c>
       <c r="W17" s="13">
-        <v>1</v>
-      </c>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="X17" s="13">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="13">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>16</v>
+      </c>
+      <c r="AG17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
     </row>
     <row r="18" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="27">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="C18" s="13">
+      <c r="D18" s="13">
         <v>11</v>
-      </c>
-      <c r="D18" s="13">
-        <v>12</v>
       </c>
       <c r="E18" s="13">
         <v>12</v>
       </c>
       <c r="F18" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" s="13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="13">
         <v>11</v>
       </c>
       <c r="I18" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="13">
         <v>0</v>
@@ -2028,10 +2403,10 @@
         <v>9</v>
       </c>
       <c r="M18" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O18" s="13">
         <v>0</v>
@@ -2043,10 +2418,10 @@
         <v>10</v>
       </c>
       <c r="R18" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S18" s="13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T18" s="13">
         <v>0</v>
@@ -2055,32 +2430,52 @@
         <v>0</v>
       </c>
       <c r="V18" s="13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W18" s="13">
-        <v>2</v>
-      </c>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="X18" s="13">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>17</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>6</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>22</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>22</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
     </row>
     <row r="19" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="27">
         <v>4</v>
       </c>
       <c r="C19" s="13">
@@ -2090,34 +2485,34 @@
         <v>7</v>
       </c>
       <c r="E19" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="13">
+        <v>7</v>
+      </c>
+      <c r="G19" s="13">
+        <v>7</v>
+      </c>
+      <c r="H19" s="13">
         <v>6</v>
       </c>
-      <c r="G19" s="13">
+      <c r="I19" s="13">
         <v>6</v>
       </c>
-      <c r="H19" s="13">
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
         <v>5</v>
       </c>
-      <c r="I19" s="13">
-        <v>3</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13">
-        <v>3</v>
-      </c>
       <c r="M19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" s="13">
         <v>0</v>
@@ -2126,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R19" s="13">
         <v>3</v>
       </c>
       <c r="S19" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T19" s="13">
         <v>0</v>
@@ -2144,125 +2539,165 @@
         <v>6</v>
       </c>
       <c r="W19" s="13">
-        <v>0</v>
-      </c>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="13">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>21</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="13">
+        <v>21</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
     </row>
     <row r="20" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="27">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13">
+        <v>4</v>
+      </c>
+      <c r="D20" s="13">
+        <v>4</v>
+      </c>
+      <c r="E20" s="13">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13">
+        <v>6</v>
+      </c>
+      <c r="G20" s="13">
+        <v>6</v>
+      </c>
+      <c r="H20" s="13">
+        <v>7</v>
+      </c>
+      <c r="I20" s="13">
+        <v>6</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
+        <v>5</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>6</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>5</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0</v>
+      </c>
+      <c r="S20" s="13">
+        <v>5</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
+        <v>1</v>
+      </c>
+      <c r="V20" s="13">
+        <v>4</v>
+      </c>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="13">
         <v>2</v>
       </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13">
-        <v>2</v>
-      </c>
-      <c r="F20" s="13">
-        <v>2</v>
-      </c>
-      <c r="G20" s="13">
-        <v>2</v>
-      </c>
-      <c r="H20" s="13">
-        <v>2</v>
-      </c>
-      <c r="I20" s="13">
-        <v>2</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13">
-        <v>1</v>
-      </c>
-      <c r="L20" s="13">
-        <v>1</v>
-      </c>
-      <c r="M20" s="13">
-        <v>0</v>
-      </c>
-      <c r="N20" s="13">
-        <v>2</v>
-      </c>
-      <c r="O20" s="13">
-        <v>0</v>
-      </c>
-      <c r="P20" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>1</v>
-      </c>
-      <c r="R20" s="13">
-        <v>0</v>
-      </c>
-      <c r="S20" s="13">
-        <v>2</v>
-      </c>
-      <c r="T20" s="13">
-        <v>0</v>
-      </c>
-      <c r="U20" s="13">
-        <v>1</v>
-      </c>
-      <c r="V20" s="13">
-        <v>1</v>
-      </c>
-      <c r="W20" s="13">
-        <v>0</v>
-      </c>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
+      <c r="AA20" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
     </row>
     <row r="21" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="27">
+        <v>39</v>
+      </c>
+      <c r="C21" s="13">
+        <v>39</v>
+      </c>
+      <c r="D21" s="13">
         <v>40</v>
       </c>
-      <c r="C21" s="13">
-        <v>40</v>
-      </c>
-      <c r="D21" s="13">
-        <v>41</v>
-      </c>
       <c r="E21" s="13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="13">
         <v>40</v>
@@ -2274,71 +2709,91 @@
         <v>41</v>
       </c>
       <c r="I21" s="13">
+        <v>38</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+      <c r="L21" s="13">
+        <v>36</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13">
+        <v>39</v>
+      </c>
+      <c r="O21" s="13">
+        <v>1</v>
+      </c>
+      <c r="P21" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>36</v>
+      </c>
+      <c r="R21" s="13">
+        <v>1</v>
+      </c>
+      <c r="S21" s="13">
         <v>40</v>
       </c>
-      <c r="J21" s="13">
-        <v>1</v>
-      </c>
-      <c r="K21" s="13">
-        <v>1</v>
-      </c>
-      <c r="L21" s="13">
-        <v>38</v>
-      </c>
-      <c r="M21" s="13">
-        <v>0</v>
-      </c>
-      <c r="N21" s="13">
-        <v>41</v>
-      </c>
-      <c r="O21" s="13">
-        <v>1</v>
-      </c>
-      <c r="P21" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>38</v>
-      </c>
-      <c r="R21" s="13">
-        <v>1</v>
-      </c>
-      <c r="S21" s="13">
+      <c r="T21" s="13">
+        <v>1</v>
+      </c>
+      <c r="U21" s="13">
+        <v>1</v>
+      </c>
+      <c r="V21" s="13">
+        <v>37</v>
+      </c>
+      <c r="W21" s="13">
+        <v>1</v>
+      </c>
+      <c r="X21" s="13">
+        <v>45</v>
+      </c>
+      <c r="Y21" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="13">
+        <v>39</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="13">
+        <v>43</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="13">
         <v>42</v>
       </c>
-      <c r="T21" s="13">
-        <v>1</v>
-      </c>
-      <c r="U21" s="13">
-        <v>1</v>
-      </c>
-      <c r="V21" s="13">
-        <v>39</v>
-      </c>
-      <c r="W21" s="13">
-        <v>1</v>
-      </c>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
+      <c r="AG21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
     </row>
     <row r="22" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="27">
         <v>16</v>
       </c>
       <c r="C22" s="13">
@@ -2348,7 +2803,7 @@
         <v>17</v>
       </c>
       <c r="E22" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="13">
         <v>17</v>
@@ -2357,40 +2812,40 @@
         <v>15</v>
       </c>
       <c r="H22" s="13">
+        <v>14</v>
+      </c>
+      <c r="I22" s="13">
         <v>13</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>13</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>13</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
         <v>12</v>
       </c>
-      <c r="J22" s="13">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13">
-        <v>12</v>
-      </c>
-      <c r="M22" s="13">
-        <v>0</v>
-      </c>
-      <c r="N22" s="13">
-        <v>12</v>
-      </c>
-      <c r="O22" s="13">
-        <v>0</v>
-      </c>
-      <c r="P22" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>11</v>
-      </c>
       <c r="R22" s="13">
         <v>1</v>
       </c>
       <c r="S22" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T22" s="13">
         <v>0</v>
@@ -2399,32 +2854,52 @@
         <v>0</v>
       </c>
       <c r="V22" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W22" s="13">
         <v>0</v>
       </c>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
+      <c r="X22" s="13">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>14</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>13</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
     </row>
     <row r="23" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="27">
         <v>4</v>
       </c>
       <c r="C23" s="13">
@@ -2443,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="13">
         <v>2</v>
@@ -2490,27 +2965,47 @@
       <c r="W23" s="13">
         <v>0</v>
       </c>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
+      <c r="X23" s="13">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
     </row>
     <row r="24" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="27">
         <v>1</v>
       </c>
       <c r="C24" s="13">
@@ -2520,19 +3015,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" s="13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" s="13">
         <v>14</v>
       </c>
       <c r="H24" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="13">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J24" s="13">
         <v>0</v>
@@ -2541,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M24" s="13">
         <v>8</v>
       </c>
       <c r="N24" s="13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" s="13">
         <v>0</v>
@@ -2556,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R24" s="13">
         <v>8</v>
       </c>
       <c r="S24" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T24" s="13">
         <v>0</v>
@@ -2571,734 +3066,448 @@
         <v>0</v>
       </c>
       <c r="V24" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W24" s="13">
         <v>0</v>
       </c>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-    </row>
-    <row r="25" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X24" s="13">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>16</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>16</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+    </row>
+    <row r="25" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13">
-        <v>0</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <v>0</v>
-      </c>
-      <c r="N25" s="13">
-        <v>0</v>
-      </c>
-      <c r="O25" s="13">
-        <v>0</v>
-      </c>
-      <c r="P25" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>0</v>
-      </c>
-      <c r="R25" s="13">
-        <v>0</v>
-      </c>
-      <c r="S25" s="13">
-        <v>1</v>
-      </c>
-      <c r="T25" s="13">
-        <v>0</v>
-      </c>
-      <c r="U25" s="13">
-        <v>0</v>
-      </c>
-      <c r="V25" s="13">
-        <v>0</v>
-      </c>
-      <c r="W25" s="13">
-        <v>1</v>
-      </c>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
+      <c r="B25" s="28">
+        <v>89</v>
+      </c>
+      <c r="C25" s="14">
+        <v>47</v>
+      </c>
+      <c r="D25" s="14">
+        <v>77</v>
+      </c>
+      <c r="E25" s="14">
+        <v>143</v>
+      </c>
+      <c r="F25" s="14">
+        <v>115</v>
+      </c>
+      <c r="G25" s="14">
+        <v>101</v>
+      </c>
+      <c r="H25" s="14">
+        <v>46</v>
+      </c>
+      <c r="I25" s="14">
+        <v>36</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>10</v>
+      </c>
+      <c r="M25" s="14">
+        <v>26</v>
+      </c>
+      <c r="N25" s="14">
+        <v>10</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>2</v>
+      </c>
+      <c r="R25" s="14">
+        <v>8</v>
+      </c>
+      <c r="S25" s="14">
+        <v>38</v>
+      </c>
+      <c r="T25" s="14">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14">
+        <v>14</v>
+      </c>
+      <c r="W25" s="14">
+        <v>24</v>
+      </c>
+      <c r="X25" s="14">
+        <v>53</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>34</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>19</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>37</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>37</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="16">
-        <v>103</v>
-      </c>
-      <c r="C26" s="16">
-        <v>57</v>
-      </c>
-      <c r="D26" s="16">
-        <v>89</v>
-      </c>
-      <c r="E26" s="16">
-        <v>166</v>
-      </c>
-      <c r="F26" s="16">
-        <v>140</v>
-      </c>
-      <c r="G26" s="16">
-        <v>120</v>
-      </c>
-      <c r="H26" s="16">
-        <v>66</v>
-      </c>
-      <c r="I26" s="16">
-        <v>67</v>
-      </c>
-      <c r="J26" s="16">
-        <v>0</v>
-      </c>
-      <c r="K26" s="16">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
-        <v>22</v>
-      </c>
-      <c r="M26" s="16">
-        <v>45</v>
-      </c>
-      <c r="N26" s="16">
-        <v>30</v>
-      </c>
-      <c r="O26" s="16">
-        <v>0</v>
-      </c>
-      <c r="P26" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="16">
-        <v>8</v>
-      </c>
-      <c r="R26" s="16">
-        <v>22</v>
-      </c>
-      <c r="S26" s="16">
-        <v>112</v>
-      </c>
-      <c r="T26" s="16">
-        <v>0</v>
-      </c>
-      <c r="U26" s="16">
-        <v>0</v>
-      </c>
-      <c r="V26" s="16">
-        <v>43</v>
-      </c>
-      <c r="W26" s="16">
-        <v>69</v>
-      </c>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="14"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="14"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="14"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A27:B27"/>
+  <mergeCells count="13">
+    <mergeCell ref="AC3:AG3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="X3:AB3"/>
